--- a/hast2_1/tests/STAGES_v220/Results_stage1_v220.xlsx
+++ b/hast2_1/tests/STAGES_v220/Results_stage1_v220.xlsx
@@ -536,7 +536,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -894,7 +894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -925,7 +925,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$B$37</c:f>
+              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,7 +946,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1075,129 +1075,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.59614</c:v>
+                  <c:v>8.290546000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.992039</c:v>
+                  <c:v>20.954485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.519306</c:v>
+                  <c:v>38.696123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.567472</c:v>
+                  <c:v>10.020442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.929138</c:v>
+                  <c:v>20.202613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.471991</c:v>
+                  <c:v>70.167798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.499618</c:v>
+                  <c:v>47.256052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.541037</c:v>
+                  <c:v>14.63658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.839299</c:v>
+                  <c:v>5.927696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.46367100000001</c:v>
+                  <c:v>22.185818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.814803</c:v>
+                  <c:v>50.24337199999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.746324</c:v>
+                  <c:v>72.47142700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.188076</c:v>
+                  <c:v>90.27411500000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.969728</c:v>
+                  <c:v>39.407729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>126.043484</c:v>
+                  <c:v>24.619269</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192.655183</c:v>
+                  <c:v>19.129478</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.817415</c:v>
+                  <c:v>14.743486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.212293</c:v>
+                  <c:v>9.711014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.51184499999999</c:v>
+                  <c:v>6.036608</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.172954</c:v>
+                  <c:v>3.11239</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.362974</c:v>
+                  <c:v>1.777928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.935902</c:v>
+                  <c:v>3.136489</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.374544</c:v>
+                  <c:v>4.936109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.954738</c:v>
+                  <c:v>7.008006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.313996</c:v>
+                  <c:v>9.107642</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.930215</c:v>
+                  <c:v>11.207263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.805351</c:v>
+                  <c:v>13.395408</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.24803</c:v>
+                  <c:v>15.471888</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.683879</c:v>
+                  <c:v>17.334054</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.537661</c:v>
+                  <c:v>19.634262</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.985453</c:v>
+                  <c:v>22.390538</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.753288</c:v>
+                  <c:v>24.6136</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>48.566935</c:v>
+                  <c:v>27.849161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.82615999999999</c:v>
+                  <c:v>30.027555</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.082075</c:v>
+                  <c:v>32.490323</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.673463</c:v>
+                  <c:v>37.431052</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.724146</c:v>
+                  <c:v>41.861846</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.551749</c:v>
+                  <c:v>47.688637</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.935014</c:v>
+                  <c:v>55.99706</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.641223</c:v>
+                  <c:v>61.70677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1220,7 +1220,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1229,7 +1229,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1358,129 +1358,2818 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.63738</c:v>
+                  <c:v>9.224015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.105681000000001</c:v>
+                  <c:v>23.299837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.679598</c:v>
+                  <c:v>42.287706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.809817999999999</c:v>
+                  <c:v>13.271437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.098415</c:v>
+                  <c:v>26.86238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.987791</c:v>
+                  <c:v>106.994317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.588393</c:v>
+                  <c:v>44.282495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.940458</c:v>
+                  <c:v>13.489018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.864614</c:v>
+                  <c:v>6.037099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.568148</c:v>
+                  <c:v>23.814494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.618364</c:v>
+                  <c:v>59.615939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.148323</c:v>
+                  <c:v>99.724524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.444396</c:v>
+                  <c:v>72.805818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.045892</c:v>
+                  <c:v>35.764667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130.350496</c:v>
+                  <c:v>23.312634</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194.458095</c:v>
+                  <c:v>18.503235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.59573899999999</c:v>
+                  <c:v>14.378758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87.59568900000001</c:v>
+                  <c:v>9.488239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.38369200000001</c:v>
+                  <c:v>5.933317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.122783</c:v>
+                  <c:v>3.07033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.353717</c:v>
+                  <c:v>1.77036</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.910106</c:v>
+                  <c:v>3.138902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.373122</c:v>
+                  <c:v>4.948677</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.950076</c:v>
+                  <c:v>7.041664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.311964</c:v>
+                  <c:v>9.144475</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.919512999999999</c:v>
+                  <c:v>11.242666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.81115</c:v>
+                  <c:v>13.422926</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.227851</c:v>
+                  <c:v>15.521594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.536373</c:v>
+                  <c:v>17.48192</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.716141</c:v>
+                  <c:v>19.720148</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.935267</c:v>
+                  <c:v>22.416417</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.34808100000001</c:v>
+                  <c:v>24.599365</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>48.84015</c:v>
+                  <c:v>27.590046</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.973037</c:v>
+                  <c:v>29.648103</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.073924</c:v>
+                  <c:v>33.100617</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.652223</c:v>
+                  <c:v>37.424922</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.685384</c:v>
+                  <c:v>41.514691</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.560301</c:v>
+                  <c:v>47.074819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.957151</c:v>
+                  <c:v>53.061924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.655979</c:v>
+                  <c:v>59.919816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.290546000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.954485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.696123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.020442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.202613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.167798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.256052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.63658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.927696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.185818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.24337199999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.47142700000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.27411500000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.407729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.619269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.129478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.743486</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.711014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.036608</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.11239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.777928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.136489</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.936109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.008006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.107642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.207263</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.395408</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.471888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.334054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.634262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.390538</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.6136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.849161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.027555</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.490323</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.431052</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.861846</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.688637</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55.99706</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.70677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.224015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.299837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.287706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.271437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.86238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.994317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.282495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.489018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.037099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.814494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.615939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.724524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.805818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.764667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.312634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.503235</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.378758</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.488239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.933317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.07033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.77036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.138902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.948677</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.041664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.144475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.242666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.422926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.521594</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.48192</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.720148</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.416417</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.599365</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.590046</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.648103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.100617</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.424922</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.514691</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.074819</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53.061924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.919816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.359772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.500155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.948644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.139525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.28859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.618694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.931833999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.816323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.221931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.86749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.130439</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.497412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.373949</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.498843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.707687</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.504333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.621807</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.924686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.313757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.444732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.302775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.864269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.737481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.956246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.84915600000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.97077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.73399000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77.621461</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.230104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.95800600000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.14985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100.584112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115.518971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>118.417318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76.93501999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.930521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>114.28663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124.948166</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>170.929401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>144.522709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="19AE03"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.618125999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.85284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.048779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.93842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.274774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.844091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.789448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.579439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.733703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.540089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.170976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.433237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.23854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.345817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.408333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.038473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.10443100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.93399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.404302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.555421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.282353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.115633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.427663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.03948100000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.167027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103.348437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113.379806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106.888549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.535135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.56663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131.529178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155.334597</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180.501673</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>154.688249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.15943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>143.23892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>158.438294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>183.585666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>262.737797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206.538158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.359772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.500155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.948644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.139525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.28859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.618694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.931833999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.816323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.221931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.86749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.130439</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.497412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.373949</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.498843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.707687</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.504333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.621807</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.924686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.313757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.444732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.302775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.864269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.737481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.956246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.84915600000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69.97077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.73399000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77.621461</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.230104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.95800600000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.14985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100.584112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115.518971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>118.417318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76.93501999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.930521</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>114.28663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124.948166</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>170.929401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>144.522709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Woodland 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.618125999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.85284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.048779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.93842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.274774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.844091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.789448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.579439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.733703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.540089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.170976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.433237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.23854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.345817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.408333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.038473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.10443100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.93399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.404302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.555421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.282353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.115633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.427663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.03948100000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.167027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103.348437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113.379806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106.888549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.535135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.56663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131.529178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155.334597</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180.501673</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>154.688249</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.15943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>143.23892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>158.438294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>183.585666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>262.737797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206.538158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clonee 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Clonee 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.826587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.714931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.727819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.297342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.644923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.509452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.665654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.265032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.651729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.60988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.642718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.380684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.759415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.103665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.677656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.536217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.896461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.625959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.832302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.905518</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.086645</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.79719</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.952908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.058631</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.307213</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.441864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.38728199999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.711589</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.12222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.92912700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.08709499999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74.715546</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80.697501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.089945</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80.48665799999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91.217073</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>97.461849</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.687005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121.773426</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>123.960981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,7 +4282,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>step1</a:t>
+              <a:t>CLO2-CDU2-ckt1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1609,11 +4298,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:f>'Clonee 220 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>step1_Base_Case</c:v>
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,7 +4319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Clonee 220 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1759,412 +4448,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Clonee 220 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.187925999999999</c:v>
+                  <c:v>12.963574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.755639</c:v>
+                  <c:v>28.994303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.612657</c:v>
+                  <c:v>39.36052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.882353999999999</c:v>
+                  <c:v>24.069121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.824567</c:v>
+                  <c:v>38.847125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.795908</c:v>
+                  <c:v>54.04519000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.627054</c:v>
+                  <c:v>48.514635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.316925</c:v>
+                  <c:v>59.882162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.313871</c:v>
+                  <c:v>72.708986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.200527</c:v>
+                  <c:v>86.16119399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.266109</c:v>
+                  <c:v>94.28165200000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.915564</c:v>
+                  <c:v>85.389049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.843085</c:v>
+                  <c:v>99.448087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.570867</c:v>
+                  <c:v>111.043676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.827937</c:v>
+                  <c:v>117.04614</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.433771</c:v>
+                  <c:v>130.442964</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.301324</c:v>
+                  <c:v>145.878421</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.361112</c:v>
+                  <c:v>151.075102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.787367</c:v>
+                  <c:v>159.141662</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.827221</c:v>
+                  <c:v>167.872489</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.575121</c:v>
+                  <c:v>166.351686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.830976</c:v>
+                  <c:v>184.800961</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.843165</c:v>
+                  <c:v>190.598722</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.635812</c:v>
+                  <c:v>197.544856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.565774</c:v>
+                  <c:v>224.237575</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.516893</c:v>
+                  <c:v>248.587379</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.557165</c:v>
+                  <c:v>266.872526</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.499575</c:v>
+                  <c:v>252.025133</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.210585</c:v>
+                  <c:v>255.17695</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.350174</c:v>
+                  <c:v>284.499015</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.935491</c:v>
+                  <c:v>316.245361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.992938</c:v>
+                  <c:v>349.999637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.038941</c:v>
+                  <c:v>377.022993</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.074225</c:v>
+                  <c:v>312.94884</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.308332</c:v>
+                  <c:v>293.844547</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.98034000000001</c:v>
+                  <c:v>368.499425</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.169739</c:v>
+                  <c:v>382.073882</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.670154</c:v>
+                  <c:v>435.2250980000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.637449</c:v>
+                  <c:v>507.237695</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>55.975919</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Corduff 220 kV'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>9.121328999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.100137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.192626</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.048923</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.490884</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106.721312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.833116</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.191484</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.425251</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.824768</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.613668</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.35946800000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.64452800000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36.965182</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.56249</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.836713</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.945967</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.153712</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.691126</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.789644</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.570458</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.832057</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.854157</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.669579</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.602181</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.550566999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.583008</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.54074</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.353877</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16.43064</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.957699</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.975064</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.778648</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25.668686</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.891016</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.967586</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.814781</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42.064014</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>47.762544</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>54.217861</c:v>
+                  <c:v>469.643172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +4699,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cruiserath 220 kV'!$B$37</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2314,7 +4720,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2443,129 +4849,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.290546000000001</c:v>
+                  <c:v>3.59614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.954485</c:v>
+                  <c:v>7.992039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.696123</c:v>
+                  <c:v>10.519306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.020442</c:v>
+                  <c:v>7.567472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.202613</c:v>
+                  <c:v>11.929138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.167798</c:v>
+                  <c:v>18.471991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.256052</c:v>
+                  <c:v>15.499618</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.63658</c:v>
+                  <c:v>21.541037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.927696</c:v>
+                  <c:v>30.839299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.185818</c:v>
+                  <c:v>43.46367100000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.24337199999999</c:v>
+                  <c:v>47.814803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.47142700000001</c:v>
+                  <c:v>40.746324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.27411500000001</c:v>
+                  <c:v>30.188076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.407729</c:v>
+                  <c:v>60.969728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.619269</c:v>
+                  <c:v>126.043484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.129478</c:v>
+                  <c:v>192.655183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.743486</c:v>
+                  <c:v>84.817415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.711014</c:v>
+                  <c:v>88.212293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.036608</c:v>
+                  <c:v>74.51184499999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.11239</c:v>
+                  <c:v>48.172954</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.777928</c:v>
+                  <c:v>33.362974</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.136489</c:v>
+                  <c:v>26.935902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.936109</c:v>
+                  <c:v>19.374544</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.008006</c:v>
+                  <c:v>13.954738</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.107642</c:v>
+                  <c:v>7.313996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.207263</c:v>
+                  <c:v>4.930215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.395408</c:v>
+                  <c:v>17.805351</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.471888</c:v>
+                  <c:v>51.24803</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.334054</c:v>
+                  <c:v>99.683879</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.634262</c:v>
+                  <c:v>57.537661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.390538</c:v>
+                  <c:v>35.985453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.6136</c:v>
+                  <c:v>62.753288</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.849161</c:v>
+                  <c:v>48.566935</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.027555</c:v>
+                  <c:v>32.82615999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.490323</c:v>
+                  <c:v>29.082075</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.431052</c:v>
+                  <c:v>37.673463</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.861846</c:v>
+                  <c:v>34.724146</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>47.688637</c:v>
+                  <c:v>32.551749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55.99706</c:v>
+                  <c:v>25.935014</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>61.70677</c:v>
+                  <c:v>20.641223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,7 +4982,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cruiserath 220 kV'!$C$37</c:f>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2588,7 +4994,7 @@
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
+                <a:srgbClr val="19AE03"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2597,7 +5003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2726,129 +5132,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cruiserath 220 kV'!$C$40:$C$80</c:f>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>9.224015</c:v>
+                  <c:v>3.63738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.299837</c:v>
+                  <c:v>8.105681000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.287706</c:v>
+                  <c:v>10.679598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.271437</c:v>
+                  <c:v>7.809817999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.86238</c:v>
+                  <c:v>12.098415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.994317</c:v>
+                  <c:v>18.987791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.282495</c:v>
+                  <c:v>14.588393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.489018</c:v>
+                  <c:v>21.940458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.037099</c:v>
+                  <c:v>30.864614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.814494</c:v>
+                  <c:v>43.568148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.615939</c:v>
+                  <c:v>48.618364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.724524</c:v>
+                  <c:v>39.148323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.805818</c:v>
+                  <c:v>34.444396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.764667</c:v>
+                  <c:v>63.045892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.312634</c:v>
+                  <c:v>130.350496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.503235</c:v>
+                  <c:v>194.458095</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.378758</c:v>
+                  <c:v>84.59573899999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.488239</c:v>
+                  <c:v>87.59568900000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.933317</c:v>
+                  <c:v>74.38369200000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.07033</c:v>
+                  <c:v>48.122783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.77036</c:v>
+                  <c:v>33.353717</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.138902</c:v>
+                  <c:v>26.910106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.948677</c:v>
+                  <c:v>19.373122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.041664</c:v>
+                  <c:v>13.950076</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.144475</c:v>
+                  <c:v>7.311964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.242666</c:v>
+                  <c:v>4.919512999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.422926</c:v>
+                  <c:v>17.81115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.521594</c:v>
+                  <c:v>51.227851</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.48192</c:v>
+                  <c:v>99.536373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.720148</c:v>
+                  <c:v>57.716141</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.416417</c:v>
+                  <c:v>35.935267</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.599365</c:v>
+                  <c:v>62.34808100000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.590046</c:v>
+                  <c:v>48.84015</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.648103</c:v>
+                  <c:v>32.973037</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33.100617</c:v>
+                  <c:v>29.073924</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.424922</c:v>
+                  <c:v>37.652223</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.514691</c:v>
+                  <c:v>34.685384</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>47.074819</c:v>
+                  <c:v>32.560301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.061924</c:v>
+                  <c:v>25.957151</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>59.919816</c:v>
+                  <c:v>20.655979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,7 +5367,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>step1</a:t>
+              <a:t>Base_Case</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2977,7 +5383,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Woodland 220 kV'!$B$37</c:f>
+              <c:f>'Corduff 110 kV'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2998,7 +5404,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3127,412 +5533,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Woodland 220 kV'!$B$40:$B$80</c:f>
+              <c:f>'Corduff 110 kV'!$B$40:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>7.359772</c:v>
+                  <c:v>3.59614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.500155</c:v>
+                  <c:v>7.992039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.948644</c:v>
+                  <c:v>10.519306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.139525</c:v>
+                  <c:v>7.567472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.28859</c:v>
+                  <c:v>11.929138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.618694</c:v>
+                  <c:v>18.471991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.931833999999999</c:v>
+                  <c:v>15.499618</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.816323</c:v>
+                  <c:v>21.541037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.221931</c:v>
+                  <c:v>30.839299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.86749</c:v>
+                  <c:v>43.46367100000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.130439</c:v>
+                  <c:v>47.814803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.497412</c:v>
+                  <c:v>40.746324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.373949</c:v>
+                  <c:v>30.188076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.498843</c:v>
+                  <c:v>60.969728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.707687</c:v>
+                  <c:v>126.043484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.504333</c:v>
+                  <c:v>192.655183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.621807</c:v>
+                  <c:v>84.817415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.924686</c:v>
+                  <c:v>88.212293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.313757</c:v>
+                  <c:v>74.51184499999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.444732</c:v>
+                  <c:v>48.172954</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.302775</c:v>
+                  <c:v>33.362974</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.864269</c:v>
+                  <c:v>26.935902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.737481</c:v>
+                  <c:v>19.374544</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.956246</c:v>
+                  <c:v>13.954738</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>59.84915600000001</c:v>
+                  <c:v>7.313996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.97077</c:v>
+                  <c:v>4.930215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.73399000000001</c:v>
+                  <c:v>17.805351</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77.621461</c:v>
+                  <c:v>51.24803</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.230104</c:v>
+                  <c:v>99.683879</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>78.95800600000001</c:v>
+                  <c:v>57.537661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89.14985</c:v>
+                  <c:v>35.985453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.584112</c:v>
+                  <c:v>62.753288</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115.518971</c:v>
+                  <c:v>48.566935</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>118.417318</c:v>
+                  <c:v>32.82615999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76.93501999999999</c:v>
+                  <c:v>29.082075</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>101.930521</c:v>
+                  <c:v>37.673463</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114.28663</c:v>
+                  <c:v>34.724146</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>124.948166</c:v>
+                  <c:v>32.551749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>170.929401</c:v>
+                  <c:v>25.935014</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>144.522709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Woodland 220 kV'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="01E6F6"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Woodland 220 kV'!$A$40:$A$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Woodland 220 kV'!$C$40:$C$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7.618125999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.85284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.048779</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.93842</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.274774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.844091</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.789448</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.579439</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.733703</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.540089</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.170976</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.433237</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.23854</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39.345817</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.408333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47.038473</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57.10443100000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.93399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>59.404302</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62.555421</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>57.282353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>67.115633</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>69.427663</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66.03948100000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.167027</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>103.348437</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>113.379806</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>106.888549</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>89.535135</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>111.56663</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131.529178</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155.334597</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>180.501673</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>154.688249</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96.15943</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>143.23892</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>158.438294</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>183.585666</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>262.737797</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>206.538158</c:v>
+                  <c:v>20.641223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3630,6 +5753,1893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 110 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 110 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.63738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.105681000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.679598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.809817999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.098415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.987791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.588393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.940458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.864614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.568148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.618364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.148323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.444396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.045892</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130.350496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194.458095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.59573899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.59568900000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.38369200000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.122783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.353717</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.910106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.373122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.950076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.311964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.919512999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.81115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.227851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.536373</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.716141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.935267</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.34808100000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.84015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.973037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.073924</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.652223</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.685384</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.560301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.957151</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.655979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>step1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.187925999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.755639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.612657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.882353999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.824567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.795908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.627054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.316925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.313871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.200527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.266109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.915564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.843085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.570867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.827937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.433771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.301324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.361112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.787367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.827221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.575121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.830976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.843165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.635812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.565774</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.516893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.557165</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.499575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.210585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.350174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.935491</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.992938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.038941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.074225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.308332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.98034000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.169739</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.670154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.637449</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.975919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="19AE03"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.121328999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.100137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.192626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.048923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.490884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.721312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.833116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.191484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.425251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.824768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.613668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.35946800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.64452800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.965182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.56249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.836713</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.945967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.153712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.691126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.789644</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.570458</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.832057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.854157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.669579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.602181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.550566999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.583008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.54074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.353877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.43064</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.957699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.975064</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.778648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.668686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.891016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.967586</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.814781</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.064014</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.762544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.217861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Base_Case</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_Base_Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$B$40:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.187925999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.755639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.612657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.882353999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.824567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.795908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.627054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.316925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.313871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.200527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.266109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.915564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.843085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.570867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.827937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.433771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.301324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.361112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.787367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.827221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.575121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.830976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.843165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.635812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.565774</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.516893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.557165</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.499575</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.210585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.350174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.935491</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.992938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.038941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.074225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.308332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.98034000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.169739</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.670154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.637449</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.975919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLO2-CDU2-ckt1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Corduff 220 kV'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>step1_CLO2-CDU2-ckt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$A$40:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corduff 220 kV'!$C$40:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.121328999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.100137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.192626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.048923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.490884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.721312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.833116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.191484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.425251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.824768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.613668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.35946800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.64452800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.965182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.56249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.836713</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.945967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.153712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.691126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.789644</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.570458</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.832057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.854157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.669579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.602181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.550566999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.583008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.54074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.353877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.43064</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.957699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.975064</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.778648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.668686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.891016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.967586</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.814781</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.064014</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.762544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.217861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency in Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impendance in Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3657,6 +7667,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3697,6 +7767,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3727,6 +7857,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3767,6 +7957,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3797,6 +8047,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
